--- a/static/download/2017/RP2_TRM_CEF_2017.xlsx
+++ b/static/download/2017/RP2_TRM_CEF_2017.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="100">
   <si>
     <t>Data source</t>
-  </si>
-  <si>
-    <t>Terminal Service Units (TSNU)</t>
   </si>
   <si>
     <t>EUROCONTROL - PRB</t>
@@ -28,13 +25,22 @@
     <t>Period Start</t>
   </si>
   <si>
+    <t>Terminal Service Units (TSNU)</t>
+  </si>
+  <si>
     <t>Further information</t>
   </si>
   <si>
-    <t>Terminal costs (nominal local currency)</t>
+    <t>Real terminal costs (EUR2009)</t>
   </si>
   <si>
-    <t>Real terminal costs (EUR2009)</t>
+    <t>Real terminal unit costs (EUR2009)</t>
+  </si>
+  <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>Terminal costs (nominal local currency)</t>
   </si>
   <si>
     <t>Inflation %</t>
@@ -49,16 +55,10 @@
     <t>Real terminal unit costs (local currency 2009)</t>
   </si>
   <si>
-    <t>Real terminal unit costs (EUR2009)</t>
+    <t>TNSU (D)</t>
   </si>
   <si>
     <t>TCZ</t>
-  </si>
-  <si>
-    <t>FAB</t>
-  </si>
-  <si>
-    <t>TNSU (D)</t>
   </si>
   <si>
     <t>Release date</t>
@@ -73,25 +73,16 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>Real TR costs (D)</t>
+    <t>Period End</t>
   </si>
   <si>
-    <t>Real TR costs (A)</t>
+    <t>Contact</t>
   </si>
   <si>
-    <t>Real TR costs (A/D)</t>
+    <t>NSA-PRU-Support@eurocontrol.int</t>
   </si>
   <si>
-    <t>Real TR unit costs (D)</t>
-  </si>
-  <si>
-    <t>Real TR unit costs (A)</t>
-  </si>
-  <si>
-    <t>Real TR unit costs (A/D)</t>
-  </si>
-  <si>
-    <t>Baltic FAB*</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>TR costs (D)</t>
@@ -121,7 +112,28 @@
     <t>Inflation index (A/D)</t>
   </si>
   <si>
+    <t>Real TR costs (D)</t>
+  </si>
+  <si>
+    <t>Real TR costs (A)</t>
+  </si>
+  <si>
+    <t>Real TR costs (A/D)</t>
+  </si>
+  <si>
+    <t>Real TR unit costs (D)</t>
+  </si>
+  <si>
+    <t>Real TR unit costs (A)</t>
+  </si>
+  <si>
+    <t>Real TR unit costs (A/D)</t>
+  </si>
+  <si>
     <t>Austria</t>
+  </si>
+  <si>
+    <t>Baltic FAB</t>
   </si>
   <si>
     <t>FAB CE</t>
@@ -130,97 +142,46 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>Period End</t>
+    <t>BLUE MED FAB</t>
   </si>
   <si>
-    <t>BLUE MED FAB*</t>
+    <t>DANUBE FAB</t>
   </si>
   <si>
-    <t>Contact</t>
+    <t>Belgium Antwerpen</t>
   </si>
   <si>
-    <t>DANUBE FAB*</t>
+    <t>FABEC</t>
   </si>
   <si>
     <t>DK-SE FAB</t>
   </si>
   <si>
-    <t>42 355 000</t>
+    <t>Belgium Brussels</t>
   </si>
   <si>
-    <t>FABEC</t>
+    <t>Belgium Charleroi</t>
   </si>
   <si>
     <t>NEFAB</t>
   </si>
   <si>
-    <t>SW FAB</t>
+    <t>Belgium Liege</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>SW FAB</t>
   </si>
   <si>
     <t>UK-Ireland FAB</t>
   </si>
   <si>
-    <t xml:space="preserve">* Please note that the 2017 data for Poland, Malta, and Bulgaria are not yet officially approved by the EC, following the revision of the Performance Plans for the years 2017-2019. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please note that the 2017 data for Poland, Malta, and Bulgaria are not yet officially approved by the EC, following the revision of the Performance Plans for the years 2017-2019. </t>
-  </si>
-  <si>
-    <t>Belgium Antwerpen</t>
-  </si>
-  <si>
-    <t>5 653 055</t>
-  </si>
-  <si>
-    <t>Belgium Brussels</t>
-  </si>
-  <si>
-    <t>35 994 691</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Belgium Charleroi</t>
-  </si>
-  <si>
-    <t>8 546 450</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Belgium Liege</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>7 872 765</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Belgium Oostende-Brugge</t>
-  </si>
-  <si>
-    <t>2 573 002</t>
   </si>
   <si>
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>DANUBE FAB</t>
-  </si>
-  <si>
     <t>BGN</t>
-  </si>
-  <si>
-    <t>10 795 526</t>
   </si>
   <si>
     <t>Croatia</t>
@@ -229,16 +190,7 @@
     <t>HRK</t>
   </si>
   <si>
-    <t>32 186 136</t>
-  </si>
-  <si>
     <t>Cyprus</t>
-  </si>
-  <si>
-    <t>BLUE MED FAB</t>
-  </si>
-  <si>
-    <t>8 448 984</t>
   </si>
   <si>
     <t>Czech Republic</t>
@@ -247,46 +199,40 @@
     <t>CZK</t>
   </si>
   <si>
-    <t>605 574 000</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>DKK</t>
   </si>
   <si>
-    <t>179 242 261</t>
-  </si>
-  <si>
     <t>Estonia</t>
-  </si>
-  <si>
-    <t>2 413 934</t>
   </si>
   <si>
     <t>Finland</t>
   </si>
   <si>
-    <t>15 452 687</t>
+    <t>Change date</t>
   </si>
   <si>
-    <t>France</t>
+    <t>France zone 1</t>
   </si>
   <si>
-    <t>248 024 300</t>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>France zone 2</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>183 533 387</t>
-  </si>
-  <si>
     <t>Greece</t>
-  </si>
-  <si>
-    <t>18 378 066</t>
   </si>
   <si>
     <t>Hungary</t>
@@ -295,58 +241,28 @@
     <t>HUF</t>
   </si>
   <si>
-    <t>6 133 511 687</t>
-  </si>
-  <si>
     <t>Ireland</t>
-  </si>
-  <si>
-    <t>26 584 700</t>
   </si>
   <si>
     <t>Italy zone 1</t>
   </si>
   <si>
-    <t>43 890 827</t>
-  </si>
-  <si>
     <t>Italy zone 2</t>
-  </si>
-  <si>
-    <t>63 881 934</t>
   </si>
   <si>
     <t>Latvia</t>
   </si>
   <si>
-    <t>7 903 554</t>
-  </si>
-  <si>
     <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Baltic FAB</t>
-  </si>
-  <si>
-    <t>5 156 643</t>
   </si>
   <si>
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>12 794 627</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
-    <t>5 505 759</t>
-  </si>
-  <si>
     <t>Netherlands</t>
-  </si>
-  <si>
-    <t>59 894 041</t>
   </si>
   <si>
     <t>Norway</t>
@@ -355,22 +271,16 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>500 784 828</t>
-  </si>
-  <si>
-    <t>Poland</t>
+    <t>Poland zone 1</t>
   </si>
   <si>
     <t>PLN</t>
   </si>
   <si>
-    <t>144 015 701</t>
+    <t>Poland zone 2</t>
   </si>
   <si>
     <t>Portugal</t>
-  </si>
-  <si>
-    <t>31 371 504</t>
   </si>
   <si>
     <t>Romania</t>
@@ -379,25 +289,13 @@
     <t>RON</t>
   </si>
   <si>
-    <t>65 441 925</t>
-  </si>
-  <si>
     <t>Slovakia</t>
-  </si>
-  <si>
-    <t>2 988 005</t>
   </si>
   <si>
     <t>Slovenia</t>
   </si>
   <si>
-    <t>3 909 038</t>
-  </si>
-  <si>
     <t>Spain</t>
-  </si>
-  <si>
-    <t>97 634 776</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -406,25 +304,16 @@
     <t>SEK</t>
   </si>
   <si>
-    <t>172 098 429</t>
-  </si>
-  <si>
     <t>Switzerland</t>
   </si>
   <si>
     <t>CHF</t>
   </si>
   <si>
-    <t>93 196 484</t>
-  </si>
-  <si>
     <t>UK-Zone C</t>
   </si>
   <si>
     <t>GBP</t>
-  </si>
-  <si>
-    <t>12 749 490</t>
   </si>
 </sst>
 </file>
@@ -452,6 +341,12 @@
     <font>
       <b/>
       <sz val="9.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <color rgb="FF980000"/>
       <name val="Calibri"/>
     </font>
@@ -459,18 +354,6 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.0"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -483,13 +366,19 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FF396EA2"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
     <font>
       <u/>
       <sz val="10.0"/>
@@ -517,30 +406,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF396EA2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="8.0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8.0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
     </font>
@@ -597,27 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="17">
     <border/>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -629,9 +510,6 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -660,6 +538,17 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -733,22 +622,22 @@
       </bottom>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -765,37 +654,34 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -808,117 +694,122 @@
     <xf borderId="10" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="11" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="15" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="3" fontId="18" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="15" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="15" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="3" fontId="18" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="19" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="18" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="17" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="22" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -927,7 +818,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -939,23 +830,26 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -967,29 +861,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>42736.0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="str">
+      <c r="F1" s="11" t="str">
         <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RP2_(2015-2019)","RP2 meta data")</f>
         <v>RP2 meta data</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
@@ -1008,28 +902,28 @@
       <c r="Z1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31">
-        <v>42853.0</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="B2" s="22">
+        <v>43293.0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="22">
         <v>43100.0</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="E2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -1076,8 +970,8 @@
       <c r="Z3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
-        <v>50</v>
+      <c r="A4" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
@@ -28997,6 +28891,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29022,28 +28919,28 @@
       <c r="A1" s="1">
         <v>2017.0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="14" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1">
       <c r="A2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>16</v>
@@ -29051,306 +28948,423 @@
       <c r="E2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="21" t="s">
+      <c r="H2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="32">
+        <v>207947.0</v>
+      </c>
+      <c r="D3" s="32">
+        <v>233811.0</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" ref="E3:E11" si="1">D3/C3-1</f>
+        <v>0.1243778463</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="32">
+        <v>3.1721231E7</v>
+      </c>
+      <c r="I3" s="32">
+        <v>3.0469681E7</v>
+      </c>
+      <c r="J3" s="34">
+        <f t="shared" ref="J3:J11" si="2">I3/H3-1</f>
+        <v>-0.0394546479</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="38">
+        <v>152.54</v>
+      </c>
+      <c r="M3" s="38">
+        <v>130.32</v>
+      </c>
+      <c r="N3" s="34">
+        <v>-0.146</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="32">
+        <v>679411.0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>730105.0</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" si="1"/>
+        <v>0.07461462944</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="32">
+        <v>1.2360659E8</v>
+      </c>
+      <c r="I4" s="32">
+        <v>1.04154245E8</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.1573730414</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="38">
+        <v>181.93</v>
+      </c>
+      <c r="M4" s="38">
+        <v>142.66</v>
+      </c>
+      <c r="N4" s="34">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="32">
+        <v>79986.0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>101004.0</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2627709849</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="32">
+        <v>1.6323323E7</v>
+      </c>
+      <c r="I5" s="32">
+        <v>2.0226147E7</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="2"/>
+        <v>0.2390949441</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="38">
+        <v>204.08</v>
+      </c>
+      <c r="M5" s="38">
+        <v>200.25</v>
+      </c>
+      <c r="N5" s="34">
+        <v>-0.019</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="32">
+        <v>299169.0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>319786.0</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.06891422574</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="32">
+        <v>3.5286046E7</v>
+      </c>
+      <c r="I6" s="32">
+        <v>3.9684568E7</v>
+      </c>
+      <c r="J6" s="34">
+        <f t="shared" si="2"/>
+        <v>0.1246532978</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="38">
+        <v>117.95</v>
+      </c>
+      <c r="M6" s="38">
+        <v>124.1</v>
+      </c>
+      <c r="N6" s="34">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="32">
+        <v>382998.0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>385438.0</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.006370790448</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="32">
+        <v>8.286713E7</v>
+      </c>
+      <c r="I7" s="32">
+        <v>8.3383858E7</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.006235620806</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="38">
+        <v>216.36</v>
+      </c>
+      <c r="M7" s="38">
+        <v>216.34</v>
+      </c>
+      <c r="N7" s="34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="32">
+        <v>3348798.0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3496063.0</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="1"/>
+        <v>0.04397548016</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="32">
+        <v>5.6494101E8</v>
+      </c>
+      <c r="I8" s="32">
+        <v>5.99576489E8</v>
+      </c>
+      <c r="J8" s="34">
+        <f t="shared" si="2"/>
+        <v>0.06130813375</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="38">
+        <v>168.7</v>
+      </c>
+      <c r="M8" s="38">
+        <v>171.5</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="32">
+        <v>429782.0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>412516.0</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="1"/>
+        <v>-0.04017385558</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="32">
+        <v>7.2201173E7</v>
+      </c>
+      <c r="I9" s="32">
+        <v>6.7169703E7</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.06968681797</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="38">
+        <v>168.0</v>
+      </c>
+      <c r="M9" s="38">
+        <v>162.83</v>
+      </c>
+      <c r="N9" s="34">
+        <v>-0.031</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="32">
+        <v>854478.0</v>
+      </c>
+      <c r="D10" s="32">
+        <v>1040432.0</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="1"/>
+        <v>0.217622923</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="32">
+        <v>1.14176794E8</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1.20224672E8</v>
+      </c>
+      <c r="J10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.05296941513</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="38">
+        <v>133.62</v>
+      </c>
+      <c r="M10" s="38">
+        <v>115.55</v>
+      </c>
+      <c r="N10" s="34">
+        <v>-0.135</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="32">
+        <v>1070133.0</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1136541.0</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="1"/>
+        <v>0.06205583792</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="32">
+        <v>3.6627638E7</v>
+      </c>
+      <c r="I11" s="32">
+        <v>3.5187517E7</v>
+      </c>
+      <c r="J11" s="34">
+        <f t="shared" si="2"/>
+        <v>-0.03931787794</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="38">
+        <v>34.23</v>
+      </c>
+      <c r="M11" s="38">
+        <v>30.96</v>
+      </c>
+      <c r="N11" s="34">
+        <v>-0.095</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="25">
-        <v>207947.326</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="25">
-        <v>3.172123106E7</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="32">
-        <f t="shared" ref="L3:L11" si="1">H3/C3</f>
-        <v>152.544549</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="25">
-        <v>679410.9347</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1.236065898E8</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="32">
-        <f t="shared" si="1"/>
-        <v>181.9319995</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="27"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="25">
-        <v>79986.02861</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="25">
-        <v>1.632332273E7</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="32">
-        <f t="shared" si="1"/>
-        <v>204.0771746</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="27"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="25">
-        <v>299169.2351</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="25">
-        <v>3.528604588E7</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="32">
-        <f t="shared" si="1"/>
-        <v>117.9467731</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="27"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="25">
-        <v>382998.4812</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="25">
-        <v>8.286713014E7</v>
-      </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="32">
-        <f t="shared" si="1"/>
-        <v>216.3641221</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="27"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="25">
-        <v>3348798.167</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="25">
-        <v>5.649410097E8</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="32">
-        <f t="shared" si="1"/>
-        <v>168.6996294</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="25">
-        <v>429781.6647</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="25">
-        <v>7.220117287E7</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="32">
-        <f t="shared" si="1"/>
-        <v>167.9950049</v>
-      </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="27"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="25">
-        <v>854478.397</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="25">
-        <v>1.141767939E8</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="32">
-        <f t="shared" si="1"/>
-        <v>133.6216273</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="27"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="25">
-        <v>1070133.0</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="25">
-        <v>3.662763821E7</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="32">
-        <f t="shared" si="1"/>
-        <v>34.22718317</v>
-      </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="27"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -29364,6 +29378,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" topLeftCell="C1" activePane="topRight" state="frozen"/>
@@ -29411,55 +29428,55 @@
       <c r="A1" s="1">
         <v>2017.0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="3"/>
-      <c r="U1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="14" t="s">
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" ht="25.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>16</v>
@@ -29467,2400 +29484,3560 @@
       <c r="F2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="N2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="O2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="22" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="R2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="S2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="22" t="s">
+      <c r="T2" s="4"/>
+      <c r="U2" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="V2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="W2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="21" t="s">
+      <c r="X2" s="4"/>
+      <c r="Y2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ2" s="21" t="s">
-        <v>24</v>
+      <c r="AD2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="28">
+      <c r="A3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="35">
         <v>196200.0</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="28" t="s">
+      <c r="E3" s="35">
+        <v>186361.0</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" ref="F3:F39" si="1">E3/D3-1</f>
+        <v>-0.05014780836</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="35">
+        <v>4.2355E7</v>
+      </c>
+      <c r="J3" s="35">
+        <v>4.1599715E7</v>
+      </c>
+      <c r="K3" s="37">
+        <f t="shared" ref="K3:K39" si="2">J3/I3-1</f>
+        <v>-0.01783225121</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="41">
+        <v>0.017</v>
+      </c>
+      <c r="N3" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O3" s="37">
+        <v>0.005</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="42">
+        <v>118.1</v>
+      </c>
+      <c r="R3" s="42">
+        <v>116.8</v>
+      </c>
+      <c r="S3" s="43">
+        <v>-1.3</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="35">
+        <v>3.5873086E7</v>
+      </c>
+      <c r="V3" s="35">
+        <v>3.5619225E7</v>
+      </c>
+      <c r="W3" s="37"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="44">
+        <v>182.84</v>
+      </c>
+      <c r="Z3" s="44">
+        <v>191.13</v>
+      </c>
+      <c r="AA3" s="37">
+        <v>0.045</v>
+      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" s="35">
+        <v>3.5873086E7</v>
+      </c>
+      <c r="AE3" s="35">
+        <v>3.5619225E7</v>
+      </c>
+      <c r="AF3" s="37">
+        <v>-0.007</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="44">
+        <v>182.84</v>
+      </c>
+      <c r="AI3" s="44">
+        <v>191.13</v>
+      </c>
+      <c r="AJ3" s="37">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="35">
+        <v>3976.0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>3841.0</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.03395372233</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="35">
+        <v>5653055.0</v>
+      </c>
+      <c r="J4" s="35">
+        <v>5779744.0</v>
+      </c>
+      <c r="K4" s="37">
+        <f t="shared" si="2"/>
+        <v>0.02241071421</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N4" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0.009</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="42">
+        <v>114.4</v>
+      </c>
+      <c r="R4" s="42">
+        <v>115.5</v>
+      </c>
+      <c r="S4" s="43">
+        <v>1.1</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="35">
+        <v>4939875.0</v>
+      </c>
+      <c r="V4" s="35">
+        <v>5002469.0</v>
+      </c>
+      <c r="W4" s="37"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="44">
+        <v>1242.5</v>
+      </c>
+      <c r="Z4" s="44">
+        <v>1302.49</v>
+      </c>
+      <c r="AA4" s="37">
+        <v>0.048</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>4939875.0</v>
+      </c>
+      <c r="AE4" s="35">
+        <v>5002469.0</v>
+      </c>
+      <c r="AF4" s="37">
+        <v>0.013</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="44">
+        <v>1242.5</v>
+      </c>
+      <c r="AI4" s="44">
+        <v>1302.49</v>
+      </c>
+      <c r="AJ4" s="37">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="35">
+        <v>141121.0</v>
+      </c>
+      <c r="E5" s="35">
+        <v>159108.0</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="1"/>
+        <v>0.127457997</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="35">
+        <v>3.5994691E7</v>
+      </c>
+      <c r="J5" s="35">
+        <v>3.4475149E7</v>
+      </c>
+      <c r="K5" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.04221572565</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N5" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O5" s="37">
+        <v>0.009</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="42">
+        <v>114.4</v>
+      </c>
+      <c r="R5" s="42">
+        <v>115.5</v>
+      </c>
+      <c r="S5" s="43">
+        <v>1.1</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="35">
+        <v>3.1453658E7</v>
+      </c>
+      <c r="V5" s="35">
+        <v>2.9838843E7</v>
+      </c>
+      <c r="W5" s="37"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="44">
+        <v>222.88</v>
+      </c>
+      <c r="Z5" s="44">
+        <v>187.54</v>
+      </c>
+      <c r="AA5" s="37">
+        <v>-0.159</v>
+      </c>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>3.1453658E7</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>2.9838843E7</v>
+      </c>
+      <c r="AF5" s="37">
+        <v>-0.051</v>
+      </c>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="44">
+        <v>222.88</v>
+      </c>
+      <c r="AI5" s="44">
+        <v>187.54</v>
+      </c>
+      <c r="AJ5" s="37">
+        <v>-0.159</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="35">
+        <v>35739.0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>30863.0</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.136433588</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="35">
+        <v>8546450.0</v>
+      </c>
+      <c r="J6" s="35">
+        <v>6980477.0</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1832308151</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N6" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O6" s="37">
+        <v>0.009</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="42">
+        <v>114.4</v>
+      </c>
+      <c r="R6" s="42">
+        <v>115.5</v>
+      </c>
+      <c r="S6" s="43">
+        <v>1.1</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="35">
+        <v>7468243.0</v>
+      </c>
+      <c r="V6" s="35">
+        <v>6041725.0</v>
+      </c>
+      <c r="W6" s="37"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="44">
+        <v>208.96</v>
+      </c>
+      <c r="Z6" s="44">
+        <v>195.76</v>
+      </c>
+      <c r="AA6" s="37">
+        <v>-0.063</v>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>7468243.0</v>
+      </c>
+      <c r="AE6" s="35">
+        <v>6041725.0</v>
+      </c>
+      <c r="AF6" s="37">
+        <v>-0.191</v>
+      </c>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="44">
+        <v>208.96</v>
+      </c>
+      <c r="AI6" s="44">
+        <v>195.76</v>
+      </c>
+      <c r="AJ6" s="37">
+        <v>-0.063</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="35">
+        <v>26508.0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>31590.0</v>
+      </c>
+      <c r="F7" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1917157085</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="35">
+        <v>7872765.0</v>
+      </c>
+      <c r="J7" s="35">
+        <v>8429664.0</v>
+      </c>
+      <c r="K7" s="37">
+        <f t="shared" si="2"/>
+        <v>0.07073740928</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N7" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O7" s="37">
+        <v>0.009</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="42">
+        <v>114.4</v>
+      </c>
+      <c r="R7" s="42">
+        <v>115.5</v>
+      </c>
+      <c r="S7" s="43">
+        <v>1.1</v>
+      </c>
+      <c r="T7" s="4"/>
+      <c r="U7" s="35">
+        <v>6879549.0</v>
+      </c>
+      <c r="V7" s="35">
+        <v>7296022.0</v>
+      </c>
+      <c r="W7" s="37"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="44">
+        <v>259.53</v>
+      </c>
+      <c r="Z7" s="44">
+        <v>230.96</v>
+      </c>
+      <c r="AA7" s="37">
+        <v>-0.11</v>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="35">
+        <v>6879549.0</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>7296022.0</v>
+      </c>
+      <c r="AF7" s="37">
+        <v>0.061</v>
+      </c>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="44">
+        <v>259.53</v>
+      </c>
+      <c r="AI7" s="44">
+        <v>230.96</v>
+      </c>
+      <c r="AJ7" s="37">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="35">
+        <v>6204.0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>4292.0</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.3081882656</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="35">
+        <v>2573002.0</v>
+      </c>
+      <c r="J8" s="35">
+        <v>2351008.0</v>
+      </c>
+      <c r="K8" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.08627820732</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N8" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="O8" s="37">
+        <v>0.009</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="42">
+        <v>114.4</v>
+      </c>
+      <c r="R8" s="42">
+        <v>115.5</v>
+      </c>
+      <c r="S8" s="43">
+        <v>1.1</v>
+      </c>
+      <c r="T8" s="4"/>
+      <c r="U8" s="35">
+        <v>2248396.0</v>
+      </c>
+      <c r="V8" s="35">
+        <v>2034839.0</v>
+      </c>
+      <c r="W8" s="37"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="44">
+        <v>362.44</v>
+      </c>
+      <c r="Z8" s="44">
+        <v>474.14</v>
+      </c>
+      <c r="AA8" s="37">
+        <v>0.308</v>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>2248396.0</v>
+      </c>
+      <c r="AE8" s="35">
+        <v>2034839.0</v>
+      </c>
+      <c r="AF8" s="37">
+        <v>-0.095</v>
+      </c>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="44">
+        <v>362.44</v>
+      </c>
+      <c r="AI8" s="44">
+        <v>474.14</v>
+      </c>
+      <c r="AJ8" s="37">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="39">
+      <c r="C9" s="4"/>
+      <c r="D9" s="35">
+        <v>24917.0</v>
+      </c>
+      <c r="E9" s="35">
+        <v>33092.0</v>
+      </c>
+      <c r="F9" s="37">
+        <f t="shared" si="1"/>
+        <v>0.3280892563</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1.0795526E7</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1.1690297E7</v>
+      </c>
+      <c r="K9" s="37">
+        <f t="shared" si="2"/>
+        <v>0.08288350192</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="N9" s="41">
+        <v>0.012</v>
+      </c>
+      <c r="O9" s="37">
+        <v>-0.01</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="42">
+        <v>114.5</v>
+      </c>
+      <c r="R9" s="42">
+        <v>106.4</v>
+      </c>
+      <c r="S9" s="43">
+        <v>-8.1</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="35">
+        <v>9426992.0</v>
+      </c>
+      <c r="V9" s="35">
+        <v>1.0983609E7</v>
+      </c>
+      <c r="W9" s="37"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="44">
+        <v>378.33</v>
+      </c>
+      <c r="Z9" s="44">
+        <v>331.91</v>
+      </c>
+      <c r="AA9" s="37">
+        <v>-0.123</v>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>4821251.0</v>
+      </c>
+      <c r="AE9" s="35">
+        <v>5617352.0</v>
+      </c>
+      <c r="AF9" s="37">
+        <v>0.165</v>
+      </c>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="44">
+        <v>193.49</v>
+      </c>
+      <c r="AI9" s="44">
+        <v>169.75</v>
+      </c>
+      <c r="AJ9" s="37">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="35">
+        <v>17989.0</v>
+      </c>
+      <c r="E10" s="35">
+        <v>19580.0</v>
+      </c>
+      <c r="F10" s="37">
+        <f t="shared" si="1"/>
+        <v>0.08844293735</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="35">
+        <v>3.2186136E7</v>
+      </c>
+      <c r="J10" s="35">
+        <v>3.1297535E7</v>
+      </c>
+      <c r="K10" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.0276081913</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="41">
+        <v>0.015</v>
+      </c>
+      <c r="N10" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="O10" s="37">
+        <v>-0.002</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="42">
+        <v>112.0</v>
+      </c>
+      <c r="R10" s="42">
+        <v>110.0</v>
+      </c>
+      <c r="S10" s="43">
+        <v>-2.0</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="35">
+        <v>2.873434E7</v>
+      </c>
+      <c r="V10" s="35">
+        <v>2.8439926E7</v>
+      </c>
+      <c r="W10" s="37"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="44">
+        <v>1597.34</v>
+      </c>
+      <c r="Z10" s="44">
+        <v>1452.49</v>
+      </c>
+      <c r="AA10" s="37">
+        <v>-0.091</v>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>3915806.0</v>
+      </c>
+      <c r="AE10" s="35">
+        <v>3875684.0</v>
+      </c>
+      <c r="AF10" s="37">
+        <v>-0.01</v>
+      </c>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="44">
+        <v>217.68</v>
+      </c>
+      <c r="AI10" s="44">
+        <v>197.94</v>
+      </c>
+      <c r="AJ10" s="37">
+        <v>-0.091</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="35">
+        <v>39400.0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>54225.0</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="1"/>
+        <v>0.3762690355</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="35">
+        <v>8448984.0</v>
+      </c>
+      <c r="J11" s="35">
+        <v>6789761.0</v>
+      </c>
+      <c r="K11" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1963813637</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="41">
         <v>0.017</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="45">
-        <v>118.1</v>
-      </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="28">
-        <v>3.5873086E7</v>
-      </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="47">
-        <f t="shared" ref="Y3:Y37" si="1">U3/D3</f>
-        <v>182.8393782</v>
-      </c>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>3.5873086E7</v>
-      </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="47">
-        <f t="shared" ref="AH3:AH37" si="2">AD3/D3</f>
-        <v>182.8393782</v>
-      </c>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="35"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="N11" s="41">
+        <v>0.007</v>
+      </c>
+      <c r="O11" s="37">
+        <v>-0.01</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="42">
+        <v>116.8</v>
+      </c>
+      <c r="R11" s="42">
+        <v>107.3</v>
+      </c>
+      <c r="S11" s="43">
+        <v>-9.5</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="35">
+        <v>7234887.0</v>
+      </c>
+      <c r="V11" s="35">
+        <v>6328199.0</v>
+      </c>
+      <c r="W11" s="37"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="44">
+        <v>183.63</v>
+      </c>
+      <c r="Z11" s="44">
+        <v>116.7</v>
+      </c>
+      <c r="AA11" s="37">
+        <v>-0.364</v>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>7234887.0</v>
+      </c>
+      <c r="AE11" s="35">
+        <v>6328199.0</v>
+      </c>
+      <c r="AF11" s="37">
+        <v>-0.125</v>
+      </c>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="44">
+        <v>183.63</v>
+      </c>
+      <c r="AI11" s="44">
+        <v>116.7</v>
+      </c>
+      <c r="AJ11" s="37">
+        <v>-0.364</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="35">
+        <v>89200.0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>91240.0</v>
+      </c>
+      <c r="F12" s="37">
+        <f t="shared" si="1"/>
+        <v>0.02286995516</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="35">
+        <v>6.05574E8</v>
+      </c>
+      <c r="J12" s="35">
+        <v>6.44361E8</v>
+      </c>
+      <c r="K12" s="37">
+        <f t="shared" si="2"/>
+        <v>0.06404997573</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="N12" s="41">
+        <v>0.024</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0.004</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="42">
+        <v>116.0</v>
+      </c>
+      <c r="R12" s="42">
+        <v>112.8</v>
+      </c>
+      <c r="S12" s="43">
+        <v>-3.2</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="35">
+        <v>5.22065054E8</v>
+      </c>
+      <c r="V12" s="35">
+        <v>5.71118955E8</v>
+      </c>
+      <c r="W12" s="37"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="44">
+        <v>5852.75</v>
+      </c>
+      <c r="Z12" s="44">
+        <v>6259.52</v>
+      </c>
+      <c r="AA12" s="37">
+        <v>0.07</v>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>1.9764186E7</v>
+      </c>
+      <c r="AE12" s="35">
+        <v>2.1621255E7</v>
+      </c>
+      <c r="AF12" s="37">
+        <v>0.094</v>
+      </c>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="44">
+        <v>221.57</v>
+      </c>
+      <c r="AI12" s="44">
+        <v>236.97</v>
+      </c>
+      <c r="AJ12" s="37">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="35">
+        <v>153069.0</v>
+      </c>
+      <c r="E13" s="35">
+        <v>165730.0</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="1"/>
+        <v>0.08271433145</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1.79242261E8</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1.75324E8</v>
+      </c>
+      <c r="K13" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.02186014045</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="41">
+        <v>0.022</v>
+      </c>
+      <c r="N13" s="41">
+        <v>0.011</v>
+      </c>
+      <c r="O13" s="37">
+        <v>-0.011</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="42">
+        <v>116.6</v>
+      </c>
+      <c r="R13" s="42">
+        <v>109.8</v>
+      </c>
+      <c r="S13" s="43">
+        <v>-6.8</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="35">
+        <v>1.53757902E8</v>
+      </c>
+      <c r="V13" s="35">
+        <v>1.59747549E8</v>
+      </c>
+      <c r="W13" s="37"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="44">
+        <v>1004.5</v>
+      </c>
+      <c r="Z13" s="44">
+        <v>963.9</v>
+      </c>
+      <c r="AA13" s="37">
+        <v>-0.04</v>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" s="35">
+        <v>2.0657028E7</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>2.1461723E7</v>
+      </c>
+      <c r="AF13" s="37">
+        <v>0.039</v>
+      </c>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="44">
+        <v>134.95</v>
+      </c>
+      <c r="AI13" s="44">
+        <v>129.5</v>
+      </c>
+      <c r="AJ13" s="37">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="35">
+        <v>17205.0</v>
+      </c>
+      <c r="E14" s="35">
+        <v>18460.0</v>
+      </c>
+      <c r="F14" s="37">
+        <f t="shared" si="1"/>
+        <v>0.07294391165</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="35">
+        <v>2413934.0</v>
+      </c>
+      <c r="J14" s="35">
+        <v>2123232.0</v>
+      </c>
+      <c r="K14" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1204266562</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="41">
+        <v>0.037</v>
+      </c>
+      <c r="O14" s="37">
+        <v>0.007</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="42">
+        <v>130.9</v>
+      </c>
+      <c r="R14" s="42">
+        <v>122.4</v>
+      </c>
+      <c r="S14" s="43">
+        <v>-8.5</v>
+      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="35">
+        <v>1844216.0</v>
+      </c>
+      <c r="V14" s="35">
+        <v>1734485.0</v>
+      </c>
+      <c r="W14" s="37"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="44">
+        <v>107.19</v>
+      </c>
+      <c r="Z14" s="44">
+        <v>93.96</v>
+      </c>
+      <c r="AA14" s="37">
+        <v>-0.123</v>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" s="35">
+        <v>1844216.0</v>
+      </c>
+      <c r="AE14" s="35">
+        <v>1734485.0</v>
+      </c>
+      <c r="AF14" s="37">
+        <v>-0.059</v>
+      </c>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="44">
+        <v>107.19</v>
+      </c>
+      <c r="AI14" s="44">
+        <v>93.96</v>
+      </c>
+      <c r="AJ14" s="37">
+        <v>-0.123</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="35">
+        <v>103000.0</v>
+      </c>
+      <c r="E15" s="35">
+        <v>108789.0</v>
+      </c>
+      <c r="F15" s="37">
+        <f t="shared" si="1"/>
+        <v>0.0562038835</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="35">
+        <v>1.5452687E7</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1.6594347E7</v>
+      </c>
+      <c r="K15" s="37">
+        <f t="shared" si="2"/>
+        <v>0.07388100205</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="41">
+        <v>0.019</v>
+      </c>
+      <c r="N15" s="41">
+        <v>0.008</v>
+      </c>
+      <c r="O15" s="37">
+        <v>-0.011</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="42">
+        <v>118.6</v>
+      </c>
+      <c r="R15" s="42">
+        <v>113.3</v>
+      </c>
+      <c r="S15" s="43">
+        <v>-5.3</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="35">
+        <v>1.303061E7</v>
+      </c>
+      <c r="V15" s="35">
+        <v>1.4652206E7</v>
+      </c>
+      <c r="W15" s="37"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="44">
+        <v>126.51</v>
+      </c>
+      <c r="Z15" s="44">
+        <v>134.68</v>
+      </c>
+      <c r="AA15" s="37">
+        <v>0.065</v>
+      </c>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD15" s="35">
+        <v>1.303061E7</v>
+      </c>
+      <c r="AE15" s="35">
+        <v>1.4652206E7</v>
+      </c>
+      <c r="AF15" s="37">
+        <v>0.124</v>
+      </c>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="44">
+        <v>126.51</v>
+      </c>
+      <c r="AI15" s="44">
+        <v>134.68</v>
+      </c>
+      <c r="AJ15" s="37">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="35">
+        <v>590998.0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>581340.0</v>
+      </c>
+      <c r="F16" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.01634184887</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1.07596304E8</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1.02093616E8</v>
+      </c>
+      <c r="K16" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.05114197975</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="41">
+        <v>0.011</v>
+      </c>
+      <c r="N16" s="41">
+        <v>0.012</v>
+      </c>
+      <c r="O16" s="37">
+        <v>0.001</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="42">
+        <v>110.3</v>
+      </c>
+      <c r="R16" s="42">
+        <v>109.8</v>
+      </c>
+      <c r="S16" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="35">
+        <v>9.7543527E7</v>
+      </c>
+      <c r="V16" s="35">
+        <v>9.2988956E7</v>
+      </c>
+      <c r="W16" s="37"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="44">
+        <v>165.05</v>
+      </c>
+      <c r="Z16" s="44">
+        <v>159.96</v>
+      </c>
+      <c r="AA16" s="37">
+        <v>-0.031</v>
+      </c>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="35">
+        <v>9.7543527E7</v>
+      </c>
+      <c r="AE16" s="35">
+        <v>9.2988956E7</v>
+      </c>
+      <c r="AF16" s="37">
+        <v>-0.047</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="44">
+        <v>165.05</v>
+      </c>
+      <c r="AI16" s="44">
+        <v>159.96</v>
+      </c>
+      <c r="AJ16" s="37">
+        <v>-0.031</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="35">
+        <v>506202.0</v>
+      </c>
+      <c r="E17" s="35">
+        <v>518628.0</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" si="1"/>
+        <v>0.02454751265</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="35">
+        <v>1.40427995E8</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1.41611268E8</v>
+      </c>
+      <c r="K17" s="37">
+        <f t="shared" si="2"/>
+        <v>0.008426190234</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="41">
+        <v>0.011</v>
+      </c>
+      <c r="N17" s="41">
+        <v>0.012</v>
+      </c>
+      <c r="O17" s="37">
+        <v>0.001</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="42">
+        <v>110.3</v>
+      </c>
+      <c r="R17" s="42">
+        <v>109.8</v>
+      </c>
+      <c r="S17" s="43">
+        <v>-0.5</v>
+      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="35">
+        <v>1.27307737E8</v>
+      </c>
+      <c r="V17" s="35">
+        <v>1.28982443E8</v>
+      </c>
+      <c r="W17" s="37"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="44">
+        <v>251.5</v>
+      </c>
+      <c r="Z17" s="44">
+        <v>248.7</v>
+      </c>
+      <c r="AA17" s="37">
+        <v>-0.011</v>
+      </c>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="35">
+        <v>1.27307737E8</v>
+      </c>
+      <c r="AE17" s="35">
+        <v>1.28982443E8</v>
+      </c>
+      <c r="AF17" s="37">
+        <v>0.013</v>
+      </c>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="44">
+        <v>251.5</v>
+      </c>
+      <c r="AI17" s="44">
+        <v>248.7</v>
+      </c>
+      <c r="AJ17" s="37">
+        <v>-0.011</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="35">
+        <v>1362100.0</v>
+      </c>
+      <c r="E18" s="35">
+        <v>1424060.0</v>
+      </c>
+      <c r="F18" s="37">
+        <f t="shared" si="1"/>
+        <v>0.0454885838</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="35">
+        <v>1.83533387E8</v>
+      </c>
+      <c r="J18" s="35">
+        <v>1.99769761E8</v>
+      </c>
+      <c r="K18" s="37">
+        <f t="shared" si="2"/>
+        <v>0.08846550628</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="41">
+        <v>0.017</v>
+      </c>
+      <c r="N18" s="41">
+        <v>0.017</v>
+      </c>
+      <c r="O18" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="42">
+        <v>113.6</v>
+      </c>
+      <c r="R18" s="42">
+        <v>110.9</v>
+      </c>
+      <c r="S18" s="43">
+        <v>-2.7</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="35">
+        <v>1.6157059E8</v>
+      </c>
+      <c r="V18" s="35">
+        <v>1.80200772E8</v>
+      </c>
+      <c r="W18" s="37"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="44">
+        <v>118.62</v>
+      </c>
+      <c r="Z18" s="44">
+        <v>126.54</v>
+      </c>
+      <c r="AA18" s="37">
+        <v>0.067</v>
+      </c>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="35">
+        <v>1.6157059E8</v>
+      </c>
+      <c r="AE18" s="35">
+        <v>1.80200772E8</v>
+      </c>
+      <c r="AF18" s="37">
+        <v>0.115</v>
+      </c>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="44">
+        <v>118.62</v>
+      </c>
+      <c r="AI18" s="44">
+        <v>126.54</v>
+      </c>
+      <c r="AJ18" s="37">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="35">
+        <v>78781.0</v>
+      </c>
+      <c r="E19" s="35">
+        <v>113003.0</v>
+      </c>
+      <c r="F19" s="37">
+        <f t="shared" si="1"/>
+        <v>0.4343940798</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1.8378066E7</v>
+      </c>
+      <c r="J19" s="35">
+        <v>1.2233143E7</v>
+      </c>
+      <c r="K19" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.3343617876</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="41">
+        <v>0.012</v>
+      </c>
+      <c r="N19" s="41">
+        <v>0.011</v>
+      </c>
+      <c r="O19" s="37">
+        <v>-0.001</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="42">
+        <v>110.4</v>
+      </c>
+      <c r="R19" s="42">
+        <v>106.5</v>
+      </c>
+      <c r="S19" s="43">
+        <v>-3.9</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="35">
+        <v>1.6640801E7</v>
+      </c>
+      <c r="V19" s="35">
+        <v>1.1484533E7</v>
+      </c>
+      <c r="W19" s="37"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="44">
+        <v>211.23</v>
+      </c>
+      <c r="Z19" s="44">
+        <v>101.63</v>
+      </c>
+      <c r="AA19" s="37">
+        <v>-0.519</v>
+      </c>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" s="35">
+        <v>1.6640801E7</v>
+      </c>
+      <c r="AE19" s="35">
+        <v>1.1484533E7</v>
+      </c>
+      <c r="AF19" s="37">
+        <v>-0.31</v>
+      </c>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="44">
+        <v>211.23</v>
+      </c>
+      <c r="AI19" s="44">
+        <v>101.63</v>
+      </c>
+      <c r="AJ19" s="37">
+        <v>-0.519</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="35">
+        <v>56713.0</v>
+      </c>
+      <c r="E20" s="35">
+        <v>63974.0</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1280306103</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="35">
+        <v>6.133511687E9</v>
+      </c>
+      <c r="J20" s="35">
+        <v>5.177203686E9</v>
+      </c>
+      <c r="K20" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1559152488</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="N20" s="41">
+        <v>0.024</v>
+      </c>
+      <c r="O20" s="37">
+        <v>-0.006</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="42">
+        <v>126.5</v>
+      </c>
+      <c r="R20" s="42">
+        <v>120.6</v>
+      </c>
+      <c r="S20" s="43">
+        <v>-5.9</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="35">
+        <v>4.847301056E9</v>
+      </c>
+      <c r="V20" s="35">
+        <v>4.292928731E9</v>
+      </c>
+      <c r="W20" s="37"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="44">
+        <v>85470.72</v>
+      </c>
+      <c r="Z20" s="44">
+        <v>67104.27</v>
+      </c>
+      <c r="AA20" s="37">
+        <v>-0.215</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="35">
+        <v>1.733042E7</v>
+      </c>
+      <c r="AE20" s="35">
+        <v>1.5348388E7</v>
+      </c>
+      <c r="AF20" s="37">
+        <v>-0.114</v>
+      </c>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="44">
+        <v>305.58</v>
+      </c>
+      <c r="AI20" s="44">
+        <v>239.92</v>
+      </c>
+      <c r="AJ20" s="37">
+        <v>-0.215</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="35">
+        <v>148200.0</v>
+      </c>
+      <c r="E21" s="35">
+        <v>171665.0</v>
+      </c>
+      <c r="F21" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1583333333</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="35">
+        <v>2.65847E7</v>
+      </c>
+      <c r="J21" s="35">
+        <v>2.388E7</v>
+      </c>
+      <c r="K21" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1017389702</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="41">
+        <v>0.014</v>
+      </c>
+      <c r="N21" s="41">
+        <v>0.003</v>
+      </c>
+      <c r="O21" s="37">
+        <v>-0.011</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="42">
+        <v>106.4</v>
+      </c>
+      <c r="R21" s="42">
+        <v>102.4</v>
+      </c>
+      <c r="S21" s="43">
+        <v>-4.0</v>
+      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="35">
+        <v>2.4977462E7</v>
+      </c>
+      <c r="V21" s="35">
+        <v>2.3323088E7</v>
+      </c>
+      <c r="W21" s="37"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="44">
+        <v>168.54</v>
+      </c>
+      <c r="Z21" s="44">
+        <v>135.86</v>
+      </c>
+      <c r="AA21" s="37">
+        <v>-0.194</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" s="35">
+        <v>2.4977462E7</v>
+      </c>
+      <c r="AE21" s="35">
+        <v>2.3323088E7</v>
+      </c>
+      <c r="AF21" s="37">
+        <v>-0.066</v>
+      </c>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="44">
+        <v>168.54</v>
+      </c>
+      <c r="AI21" s="44">
+        <v>135.86</v>
+      </c>
+      <c r="AJ21" s="37">
+        <v>-0.194</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="35">
+        <v>230401.0</v>
+      </c>
+      <c r="E22" s="35">
+        <v>217830.0</v>
+      </c>
+      <c r="F22" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.05456139513</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="35">
+        <v>4.3890827E7</v>
+      </c>
+      <c r="J22" s="35">
+        <v>3.6830898E7</v>
+      </c>
+      <c r="K22" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1608520386</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N22" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="O22" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="42">
+        <v>113.5</v>
+      </c>
+      <c r="R22" s="42">
+        <v>111.1</v>
+      </c>
+      <c r="S22" s="43">
+        <v>-2.4</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="35">
+        <v>3.8680909E7</v>
+      </c>
+      <c r="V22" s="35">
+        <v>3.3155078E7</v>
+      </c>
+      <c r="W22" s="37"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="44">
+        <v>167.89</v>
+      </c>
+      <c r="Z22" s="44">
+        <v>152.21</v>
+      </c>
+      <c r="AA22" s="37">
+        <v>-0.093</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" s="35">
+        <v>3.8680909E7</v>
+      </c>
+      <c r="AE22" s="35">
+        <v>3.3155078E7</v>
+      </c>
+      <c r="AF22" s="37">
+        <v>-0.143</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="44">
+        <v>167.89</v>
+      </c>
+      <c r="AI22" s="44">
+        <v>152.21</v>
+      </c>
+      <c r="AJ22" s="37">
+        <v>-0.093</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="35">
+        <v>301829.0</v>
+      </c>
+      <c r="E23" s="35">
+        <v>313846.0</v>
+      </c>
+      <c r="F23" s="37">
+        <f t="shared" si="1"/>
+        <v>0.03981393438</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="35">
+        <v>6.3881934E7</v>
+      </c>
+      <c r="J23" s="35">
+        <v>5.5151947E7</v>
+      </c>
+      <c r="K23" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1366581513</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="N23" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="O23" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="42">
+        <v>113.5</v>
+      </c>
+      <c r="R23" s="42">
+        <v>111.1</v>
+      </c>
+      <c r="S23" s="43">
+        <v>-2.4</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="35">
+        <v>5.6299036E7</v>
+      </c>
+      <c r="V23" s="35">
+        <v>4.9647638E7</v>
+      </c>
+      <c r="W23" s="37"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="44">
+        <v>186.53</v>
+      </c>
+      <c r="Z23" s="44">
+        <v>158.19</v>
+      </c>
+      <c r="AA23" s="37">
+        <v>-0.152</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" s="35">
+        <v>5.6299036E7</v>
+      </c>
+      <c r="AE23" s="35">
+        <v>4.9647638E7</v>
+      </c>
+      <c r="AF23" s="37">
+        <v>-0.118</v>
+      </c>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="44">
+        <v>186.53</v>
+      </c>
+      <c r="AI23" s="44">
+        <v>158.19</v>
+      </c>
+      <c r="AJ23" s="37">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="35">
+        <v>32900.0</v>
+      </c>
+      <c r="E24" s="35">
+        <v>35442.0</v>
+      </c>
+      <c r="F24" s="37">
+        <f t="shared" si="1"/>
+        <v>0.07726443769</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="35">
+        <v>7903554.0</v>
+      </c>
+      <c r="J24" s="35">
+        <v>5966105.0</v>
+      </c>
+      <c r="K24" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.2451364285</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="41">
+        <v>0.023</v>
+      </c>
+      <c r="N24" s="41">
+        <v>0.029</v>
+      </c>
+      <c r="O24" s="37">
+        <v>0.006</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="42">
+        <v>114.8</v>
+      </c>
+      <c r="R24" s="42">
+        <v>109.6</v>
+      </c>
+      <c r="S24" s="43">
+        <v>-5.2</v>
+      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="35">
+        <v>6885595.0</v>
+      </c>
+      <c r="V24" s="35">
+        <v>5445084.0</v>
+      </c>
+      <c r="W24" s="37"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="44">
+        <v>209.29</v>
+      </c>
+      <c r="Z24" s="44">
+        <v>153.63</v>
+      </c>
+      <c r="AA24" s="37">
+        <v>-0.266</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" s="35">
+        <v>6885595.0</v>
+      </c>
+      <c r="AE24" s="35">
+        <v>5445084.0</v>
+      </c>
+      <c r="AF24" s="37">
+        <v>-0.209</v>
+      </c>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="44">
+        <v>209.29</v>
+      </c>
+      <c r="AI24" s="44">
+        <v>153.63</v>
+      </c>
+      <c r="AJ24" s="37">
+        <v>-0.266</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="35">
+        <v>25498.0</v>
+      </c>
+      <c r="E25" s="35">
+        <v>29385.0</v>
+      </c>
+      <c r="F25" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1524433289</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="35">
+        <v>5156643.0</v>
+      </c>
+      <c r="J25" s="35">
+        <v>5166244.0</v>
+      </c>
+      <c r="K25" s="37">
+        <f t="shared" si="2"/>
+        <v>0.001861870213</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="41">
+        <v>0.026</v>
+      </c>
+      <c r="N25" s="41">
+        <v>0.037</v>
+      </c>
+      <c r="O25" s="37">
+        <v>0.012</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="42">
+        <v>118.4</v>
+      </c>
+      <c r="R25" s="42">
+        <v>114.3</v>
+      </c>
+      <c r="S25" s="43">
+        <v>-4.0</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="35">
+        <v>4356700.0</v>
+      </c>
+      <c r="V25" s="35">
+        <v>4519165.0</v>
+      </c>
+      <c r="W25" s="37"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="44">
+        <v>170.86</v>
+      </c>
+      <c r="Z25" s="44">
+        <v>153.79</v>
+      </c>
+      <c r="AA25" s="37">
+        <v>-0.1</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" s="35">
+        <v>4356700.0</v>
+      </c>
+      <c r="AE25" s="35">
+        <v>4519165.0</v>
+      </c>
+      <c r="AF25" s="37">
+        <v>0.037</v>
+      </c>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="44">
+        <v>170.86</v>
+      </c>
+      <c r="AI25" s="44">
+        <v>153.79</v>
+      </c>
+      <c r="AJ25" s="37">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="35">
+        <v>44732.0</v>
+      </c>
+      <c r="E26" s="35">
+        <v>50904.0</v>
+      </c>
+      <c r="F26" s="37">
+        <f t="shared" si="1"/>
+        <v>0.137977287</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="35">
+        <v>1.2794627E7</v>
+      </c>
+      <c r="J26" s="35">
+        <v>1.2389842E7</v>
+      </c>
+      <c r="K26" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.0316371083</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="41">
+        <v>0.018</v>
+      </c>
+      <c r="N26" s="41">
+        <v>0.021</v>
+      </c>
+      <c r="O26" s="37">
+        <v>0.003</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="42">
+        <v>118.6</v>
+      </c>
+      <c r="R26" s="42">
+        <v>114.8</v>
+      </c>
+      <c r="S26" s="43">
+        <v>-3.8</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="35">
+        <v>1.0789343E7</v>
+      </c>
+      <c r="V26" s="35">
+        <v>1.0791163E7</v>
+      </c>
+      <c r="W26" s="37"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="44">
+        <v>241.2</v>
+      </c>
+      <c r="Z26" s="44">
+        <v>211.99</v>
+      </c>
+      <c r="AA26" s="37">
+        <v>-0.121</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" s="35">
+        <v>1.0789343E7</v>
+      </c>
+      <c r="AE26" s="35">
+        <v>1.0791163E7</v>
+      </c>
+      <c r="AF26" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="44">
+        <v>241.2</v>
+      </c>
+      <c r="AI26" s="44">
+        <v>211.99</v>
+      </c>
+      <c r="AJ26" s="37">
+        <v>-0.121</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="35">
+        <v>29000.0</v>
+      </c>
+      <c r="E27" s="35">
+        <v>31200.0</v>
+      </c>
+      <c r="F27" s="37">
+        <f t="shared" si="1"/>
+        <v>0.07586206897</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="35">
+        <v>5505759.0</v>
+      </c>
+      <c r="J27" s="35">
+        <v>4020892.0</v>
+      </c>
+      <c r="K27" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.2696934246</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="41">
+        <v>0.017</v>
+      </c>
+      <c r="N27" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="O27" s="37">
+        <v>-0.004</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="42">
+        <v>115.9</v>
+      </c>
+      <c r="R27" s="42">
+        <v>113.6</v>
+      </c>
+      <c r="S27" s="43">
+        <v>-2.3</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="35">
+        <v>4750956.0</v>
+      </c>
+      <c r="V27" s="35">
+        <v>3538797.0</v>
+      </c>
+      <c r="W27" s="37"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="44">
+        <v>163.83</v>
+      </c>
+      <c r="Z27" s="44">
+        <v>113.42</v>
+      </c>
+      <c r="AA27" s="37">
+        <v>-0.308</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" s="35">
+        <v>4750956.0</v>
+      </c>
+      <c r="AE27" s="35">
+        <v>3538797.0</v>
+      </c>
+      <c r="AF27" s="37">
+        <v>-0.255</v>
+      </c>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="44">
+        <v>163.83</v>
+      </c>
+      <c r="AI27" s="44">
+        <v>113.42</v>
+      </c>
+      <c r="AJ27" s="37">
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="35">
+        <v>361000.0</v>
+      </c>
+      <c r="E28" s="35">
+        <v>406060.0</v>
+      </c>
+      <c r="F28" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1248199446</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="35">
+        <v>5.9894041E7</v>
+      </c>
+      <c r="J28" s="35">
+        <v>6.4709486E7</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" si="2"/>
+        <v>0.08039940067</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="41">
+        <v>0.014</v>
+      </c>
+      <c r="N28" s="41">
+        <v>0.013</v>
+      </c>
+      <c r="O28" s="37">
+        <v>-0.001</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="42">
+        <v>113.6</v>
+      </c>
+      <c r="R28" s="42">
+        <v>111.3</v>
+      </c>
+      <c r="S28" s="43">
+        <v>-2.3</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="35">
+        <v>5.2724712E7</v>
+      </c>
+      <c r="V28" s="35">
+        <v>5.8152723E7</v>
+      </c>
+      <c r="W28" s="37"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="44">
+        <v>146.05</v>
+      </c>
+      <c r="Z28" s="44">
+        <v>143.21</v>
+      </c>
+      <c r="AA28" s="37">
+        <v>-0.019</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" s="35">
+        <v>5.2724712E7</v>
+      </c>
+      <c r="AE28" s="35">
+        <v>5.8152723E7</v>
+      </c>
+      <c r="AF28" s="37">
+        <v>0.103</v>
+      </c>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="44">
+        <v>146.05</v>
+      </c>
+      <c r="AI28" s="44">
+        <v>143.21</v>
+      </c>
+      <c r="AJ28" s="37">
+        <v>-0.019</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="35">
+        <v>276677.0</v>
+      </c>
+      <c r="E29" s="35">
+        <v>249825.0</v>
+      </c>
+      <c r="F29" s="37">
+        <f t="shared" si="1"/>
+        <v>-0.09705179686</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="35">
+        <v>5.00784828E8</v>
+      </c>
+      <c r="J29" s="35">
+        <v>4.58964741E8</v>
+      </c>
+      <c r="K29" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.08350909345</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="41">
+        <v>0.021</v>
+      </c>
+      <c r="N29" s="41">
+        <v>0.019</v>
+      </c>
+      <c r="O29" s="37">
+        <v>-0.002</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="42">
+        <v>113.7</v>
+      </c>
+      <c r="R29" s="42">
+        <v>116.0</v>
+      </c>
+      <c r="S29" s="43">
+        <v>2.2</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="35">
+        <v>4.40250417E8</v>
+      </c>
+      <c r="V29" s="35">
+        <v>3.95712606E8</v>
+      </c>
+      <c r="W29" s="37"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="44">
+        <v>1591.21</v>
+      </c>
+      <c r="Z29" s="44">
+        <v>1583.96</v>
+      </c>
+      <c r="AA29" s="37">
+        <v>-0.005</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD29" s="35">
+        <v>5.0440752E7</v>
+      </c>
+      <c r="AE29" s="35">
+        <v>4.5337928E7</v>
+      </c>
+      <c r="AF29" s="37">
+        <v>-0.101</v>
+      </c>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="44">
+        <v>182.31</v>
+      </c>
+      <c r="AI29" s="44">
+        <v>181.48</v>
+      </c>
+      <c r="AJ29" s="37">
+        <v>-0.005</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="35">
+        <v>72865.0</v>
+      </c>
+      <c r="E30" s="35">
+        <v>90729.0</v>
+      </c>
+      <c r="F30" s="37">
+        <f t="shared" si="1"/>
+        <v>0.2451657174</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="35">
+        <v>4.3188562E7</v>
+      </c>
+      <c r="J30" s="35">
+        <v>3.9055461E7</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.09569897233</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="41">
+        <v>0.025</v>
+      </c>
+      <c r="N30" s="41">
+        <v>0.016</v>
+      </c>
+      <c r="O30" s="37">
+        <v>-0.009</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="42">
+        <v>121.7</v>
+      </c>
+      <c r="R30" s="42">
+        <v>112.4</v>
+      </c>
+      <c r="S30" s="43">
+        <v>-9.3</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="35">
+        <v>3.5482607E7</v>
+      </c>
+      <c r="V30" s="35">
+        <v>3.4741528E7</v>
+      </c>
+      <c r="W30" s="37"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="44">
+        <v>486.96</v>
+      </c>
+      <c r="Z30" s="44">
+        <v>382.91</v>
+      </c>
+      <c r="AA30" s="37">
+        <v>-0.214</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" s="35">
+        <v>8206291.0</v>
+      </c>
+      <c r="AE30" s="35">
+        <v>8034897.0</v>
+      </c>
+      <c r="AF30" s="37">
+        <v>-0.021</v>
+      </c>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="44">
+        <v>112.62</v>
+      </c>
+      <c r="AI30" s="44">
+        <v>88.56</v>
+      </c>
+      <c r="AJ30" s="37">
+        <v>-0.214</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="35">
+        <v>109584.0</v>
+      </c>
+      <c r="E31" s="35">
+        <v>113696.0</v>
+      </c>
+      <c r="F31" s="37">
+        <f t="shared" si="1"/>
+        <v>0.03752372609</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="35">
+        <v>1.0082714E8</v>
+      </c>
+      <c r="J31" s="35">
+        <v>8.7082979E7</v>
+      </c>
+      <c r="K31" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.1363141015</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="41">
+        <v>0.025</v>
+      </c>
+      <c r="N31" s="41">
+        <v>0.016</v>
+      </c>
+      <c r="O31" s="37">
+        <v>-0.009</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="42">
+        <v>121.7</v>
+      </c>
+      <c r="R31" s="42">
+        <v>112.4</v>
+      </c>
+      <c r="S31" s="43">
+        <v>-9.3</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="35">
+        <v>8.2836974E7</v>
+      </c>
+      <c r="V31" s="35">
+        <v>7.746409E7</v>
+      </c>
+      <c r="W31" s="37"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="44">
+        <v>755.92</v>
+      </c>
+      <c r="Z31" s="44">
+        <v>681.33</v>
+      </c>
+      <c r="AA31" s="37">
+        <v>-0.099</v>
+      </c>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD31" s="35">
+        <v>1.915824E7</v>
+      </c>
+      <c r="AE31" s="35">
+        <v>1.7915619E7</v>
+      </c>
+      <c r="AF31" s="37">
+        <v>-0.065</v>
+      </c>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="44">
+        <v>174.83</v>
+      </c>
+      <c r="AI31" s="44">
+        <v>157.57</v>
+      </c>
+      <c r="AJ31" s="37">
+        <v>-0.099</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="28">
-        <v>3976.0</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N4" s="39"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="45">
-        <v>114.4</v>
-      </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="28">
-        <v>4939875.0</v>
-      </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="47">
+      <c r="C32" s="4"/>
+      <c r="D32" s="35">
+        <v>200922.0</v>
+      </c>
+      <c r="E32" s="35">
+        <v>258955.0</v>
+      </c>
+      <c r="F32" s="37">
         <f t="shared" si="1"/>
-        <v>1242.42329</v>
-      </c>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="28">
-        <v>4939875.0</v>
-      </c>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="47">
+        <v>0.2888334777</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="35">
+        <v>3.1371504E7</v>
+      </c>
+      <c r="J32" s="35">
+        <v>3.2533176E7</v>
+      </c>
+      <c r="K32" s="37">
         <f t="shared" si="2"/>
-        <v>1242.42329</v>
-      </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="35"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="28">
-        <v>141121.0</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="45">
-        <v>114.4</v>
-      </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="28">
-        <v>3.1453658E7</v>
-      </c>
-      <c r="V5" s="28"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="47">
-        <f t="shared" si="1"/>
-        <v>222.8843191</v>
-      </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD5" s="28">
-        <v>3.1453658E7</v>
-      </c>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="47">
-        <f t="shared" si="2"/>
-        <v>222.8843191</v>
-      </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="35"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="28">
-        <v>35739.0</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="45">
-        <v>114.4</v>
-      </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="28">
-        <v>7468243.0</v>
-      </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="47">
-        <f t="shared" si="1"/>
-        <v>208.9661994</v>
-      </c>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>7468243.0</v>
-      </c>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="47">
-        <f t="shared" si="2"/>
-        <v>208.9661994</v>
-      </c>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="35"/>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="28">
-        <v>26508.0</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N7" s="39"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="45">
-        <v>114.4</v>
-      </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="28">
-        <v>6879549.0</v>
-      </c>
-      <c r="V7" s="28"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="47">
-        <f t="shared" si="1"/>
-        <v>259.5272748</v>
-      </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>6879549.0</v>
-      </c>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="47">
-        <f t="shared" si="2"/>
-        <v>259.5272748</v>
-      </c>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="35"/>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="28">
-        <v>6204.0</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="45">
-        <v>114.4</v>
-      </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="28">
-        <v>2248396.0</v>
-      </c>
-      <c r="V8" s="28"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="47">
-        <f t="shared" si="1"/>
-        <v>362.4107028</v>
-      </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD8" s="28">
-        <v>2248396.0</v>
-      </c>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="47">
-        <f t="shared" si="2"/>
-        <v>362.4107028</v>
-      </c>
-      <c r="AI8" s="47"/>
-      <c r="AJ8" s="35"/>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="28">
-        <v>24917.0</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="39">
-        <v>0.022</v>
-      </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="45">
-        <v>114.5</v>
-      </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="28">
-        <v>9426992.0</v>
-      </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="47">
-        <f t="shared" si="1"/>
-        <v>378.3357547</v>
-      </c>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD9" s="28">
-        <v>4821251.0</v>
-      </c>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="47">
-        <f t="shared" si="2"/>
-        <v>193.4924349</v>
-      </c>
-      <c r="AI9" s="47"/>
-      <c r="AJ9" s="35"/>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="28">
-        <v>17989.0</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="39">
+        <v>0.03702952845</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="41">
         <v>0.015</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="45">
-        <v>112.0</v>
-      </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="28">
-        <v>2.873434E7</v>
-      </c>
-      <c r="V10" s="28"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="47">
-        <f t="shared" si="1"/>
-        <v>1597.328367</v>
-      </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="28">
-        <v>3915806.0</v>
-      </c>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="47">
-        <f t="shared" si="2"/>
-        <v>217.6778031</v>
-      </c>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="35"/>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="28">
-        <v>39400.0</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="39">
-        <v>0.017</v>
-      </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="45">
-        <v>116.8</v>
-      </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="28">
-        <v>7234887.0</v>
-      </c>
-      <c r="V11" s="28"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="47">
-        <f t="shared" si="1"/>
-        <v>183.6265736</v>
-      </c>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD11" s="28">
-        <v>7234887.0</v>
-      </c>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="47">
-        <f t="shared" si="2"/>
-        <v>183.6265736</v>
-      </c>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="35"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="28">
-        <v>89200.0</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="39">
-        <v>0.02</v>
-      </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="45">
-        <v>116.0</v>
-      </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="28">
-        <v>5.22065054E8</v>
-      </c>
-      <c r="V12" s="28"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="47">
-        <f t="shared" si="1"/>
-        <v>5852.747242</v>
-      </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD12" s="28">
-        <v>1.9764186E7</v>
-      </c>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="47">
-        <f t="shared" si="2"/>
-        <v>221.5715919</v>
-      </c>
-      <c r="AI12" s="47"/>
-      <c r="AJ12" s="35"/>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="28">
-        <v>153069.0</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="39">
-        <v>0.022</v>
-      </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="45">
-        <v>116.6</v>
-      </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="28">
-        <v>1.53757902E8</v>
-      </c>
-      <c r="V13" s="28"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="47">
-        <f t="shared" si="1"/>
-        <v>1004.500598</v>
-      </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD13" s="28">
-        <v>2.0657028E7</v>
-      </c>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="35"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="47">
-        <f t="shared" si="2"/>
-        <v>134.952394</v>
-      </c>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="35"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="28">
-        <v>17205.0</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="45">
-        <v>130.9</v>
-      </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="28">
-        <v>1844216.0</v>
-      </c>
-      <c r="V14" s="28"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="47">
-        <f t="shared" si="1"/>
-        <v>107.1907004</v>
-      </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD14" s="28">
-        <v>1844216.0</v>
-      </c>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="35"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="47">
-        <f t="shared" si="2"/>
-        <v>107.1907004</v>
-      </c>
-      <c r="AI14" s="47"/>
-      <c r="AJ14" s="35"/>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="28">
-        <v>103000.0</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="39">
-        <v>0.019</v>
-      </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="45">
-        <v>118.6</v>
-      </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="28">
-        <v>1.303061E7</v>
-      </c>
-      <c r="V15" s="28"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="47">
-        <f t="shared" si="1"/>
-        <v>126.5107767</v>
-      </c>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD15" s="28">
-        <v>1.303061E7</v>
-      </c>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="47">
-        <f t="shared" si="2"/>
-        <v>126.5107767</v>
-      </c>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="35"/>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="28">
-        <v>1097200.0</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="39">
-        <v>0.011</v>
-      </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="45">
-        <v>110.3</v>
-      </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="28">
-        <v>2.24851264E8</v>
-      </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="47">
-        <f t="shared" si="1"/>
-        <v>204.9318848</v>
-      </c>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD16" s="28">
-        <v>2.24851264E8</v>
-      </c>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="35"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="47">
-        <f t="shared" si="2"/>
-        <v>204.9318848</v>
-      </c>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="35"/>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="28">
-        <v>1362100.0</v>
-      </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="39">
-        <v>0.017</v>
-      </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="45">
-        <v>113.6</v>
-      </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="28">
-        <v>1.6157059E8</v>
-      </c>
-      <c r="V17" s="28"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="47">
-        <f t="shared" si="1"/>
-        <v>118.6187431</v>
-      </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD17" s="28">
-        <v>1.6157059E8</v>
-      </c>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="47">
-        <f t="shared" si="2"/>
-        <v>118.6187431</v>
-      </c>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="35"/>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="28">
-        <v>78781.0</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="39">
-        <v>0.012</v>
-      </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="45">
-        <v>110.4</v>
-      </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="28">
-        <v>1.6640801E7</v>
-      </c>
-      <c r="V18" s="28"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="47">
-        <f t="shared" si="1"/>
-        <v>211.2286084</v>
-      </c>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD18" s="28">
-        <v>1.6640801E7</v>
-      </c>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="35"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="47">
-        <f t="shared" si="2"/>
-        <v>211.2286084</v>
-      </c>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="35"/>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="28">
-        <v>56713.0</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="39">
-        <v>0.03</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="45">
-        <v>126.5</v>
-      </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="28">
-        <v>4.847301056E9</v>
-      </c>
-      <c r="V19" s="28"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="47">
-        <f t="shared" si="1"/>
-        <v>85470.72199</v>
-      </c>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD19" s="28">
-        <v>1.733042E7</v>
-      </c>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="47">
-        <f t="shared" si="2"/>
-        <v>305.5810837</v>
-      </c>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="35"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="28">
-        <v>148200.0</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="39">
-        <v>0.014</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="45">
-        <v>106.4</v>
-      </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="28">
-        <v>2.4977462E7</v>
-      </c>
-      <c r="V20" s="28"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="47">
-        <f t="shared" si="1"/>
-        <v>168.5388799</v>
-      </c>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD20" s="28">
-        <v>2.4977462E7</v>
-      </c>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="47">
-        <f t="shared" si="2"/>
-        <v>168.5388799</v>
-      </c>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="35"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="28">
-        <v>230401.0</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N21" s="39"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="45">
-        <v>113.5</v>
-      </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="28">
-        <v>3.8680909E7</v>
-      </c>
-      <c r="V21" s="28"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="47">
-        <f t="shared" si="1"/>
-        <v>167.8851611</v>
-      </c>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD21" s="28">
-        <v>3.8680909E7</v>
-      </c>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="35"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="47">
-        <f t="shared" si="2"/>
-        <v>167.8851611</v>
-      </c>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="35"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="28">
-        <v>301829.0</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="39">
-        <v>0.013</v>
-      </c>
-      <c r="N22" s="39"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="45">
-        <v>113.5</v>
-      </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="28">
-        <v>5.6299036E7</v>
-      </c>
-      <c r="V22" s="28"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="47">
-        <f t="shared" si="1"/>
-        <v>186.5262649</v>
-      </c>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD22" s="28">
-        <v>5.6299036E7</v>
-      </c>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="47">
-        <f t="shared" si="2"/>
-        <v>186.5262649</v>
-      </c>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="35"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="28">
-        <v>32900.0</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="39">
-        <v>0.023</v>
-      </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="45">
-        <v>114.8</v>
-      </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="28">
-        <v>6885595.0</v>
-      </c>
-      <c r="V23" s="28"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="47">
-        <f t="shared" si="1"/>
-        <v>209.2886018</v>
-      </c>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD23" s="28">
-        <v>6885595.0</v>
-      </c>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="47">
-        <f t="shared" si="2"/>
-        <v>209.2886018</v>
-      </c>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="35"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="28">
-        <v>25498.0</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="39">
-        <v>0.025</v>
-      </c>
-      <c r="N24" s="39"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="45">
-        <v>118.4</v>
-      </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="28">
-        <v>4356700.0</v>
-      </c>
-      <c r="V24" s="28"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="47">
-        <f t="shared" si="1"/>
-        <v>170.8643815</v>
-      </c>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" s="28">
-        <v>4356700.0</v>
-      </c>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="47">
-        <f t="shared" si="2"/>
-        <v>170.8643815</v>
-      </c>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="35"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="28">
-        <v>44732.0</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="39">
-        <v>0.018</v>
-      </c>
-      <c r="N25" s="39"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="45">
-        <v>118.6</v>
-      </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="28">
-        <v>1.0789343E7</v>
-      </c>
-      <c r="V25" s="28"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="47">
-        <f t="shared" si="1"/>
-        <v>241.1996557</v>
-      </c>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD25" s="28">
-        <v>1.0789343E7</v>
-      </c>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="47">
-        <f t="shared" si="2"/>
-        <v>241.1996557</v>
-      </c>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="35"/>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="28">
-        <v>29000.0</v>
-      </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="39">
-        <v>0.017</v>
-      </c>
-      <c r="N26" s="39"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="45">
-        <v>115.9</v>
-      </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="28">
-        <v>4750956.0</v>
-      </c>
-      <c r="V26" s="28"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="47">
-        <f t="shared" si="1"/>
-        <v>163.826069</v>
-      </c>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD26" s="28">
-        <v>4750956.0</v>
-      </c>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="47">
-        <f t="shared" si="2"/>
-        <v>163.826069</v>
-      </c>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="35"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="28">
-        <v>361000.0</v>
-      </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="39">
-        <v>0.014</v>
-      </c>
-      <c r="N27" s="39"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="45">
-        <v>113.6</v>
-      </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="28">
-        <v>5.2724712E7</v>
-      </c>
-      <c r="V27" s="28"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="47">
-        <f t="shared" si="1"/>
-        <v>146.0518338</v>
-      </c>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD27" s="28">
-        <v>5.2724712E7</v>
-      </c>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="47">
-        <f t="shared" si="2"/>
-        <v>146.0518338</v>
-      </c>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="35"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="28">
-        <v>276677.0</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="39">
-        <v>0.021</v>
-      </c>
-      <c r="N28" s="39"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="45">
-        <v>113.7</v>
-      </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="28">
-        <v>4.40250417E8</v>
-      </c>
-      <c r="V28" s="28"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="47">
-        <f t="shared" si="1"/>
-        <v>1591.207137</v>
-      </c>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD28" s="28">
-        <v>5.0440752E7</v>
-      </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="47">
-        <f t="shared" si="2"/>
-        <v>182.3091619</v>
-      </c>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="35"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="28">
-        <v>182449.0</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="39">
-        <v>0.025</v>
-      </c>
-      <c r="N29" s="39"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="45">
-        <v>121.7</v>
-      </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="28">
-        <v>1.18319581E8</v>
-      </c>
-      <c r="V29" s="28"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="47">
-        <f t="shared" si="1"/>
-        <v>648.507698</v>
-      </c>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD29" s="28">
-        <v>2.7364531E7</v>
-      </c>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="47">
-        <f t="shared" si="2"/>
-        <v>149.9845491</v>
-      </c>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="35"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="28">
-        <v>200922.0</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="39">
-        <v>0.015</v>
-      </c>
-      <c r="N30" s="39"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="45">
+      <c r="N32" s="41">
+        <v>0.016</v>
+      </c>
+      <c r="O32" s="37">
+        <v>0.001</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="42">
         <v>113.8</v>
       </c>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="28">
+      <c r="R32" s="42">
+        <v>111.2</v>
+      </c>
+      <c r="S32" s="43">
+        <v>-2.7</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="35">
         <v>2.7559335E7</v>
       </c>
-      <c r="V30" s="28"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="47">
-        <f t="shared" si="1"/>
-        <v>137.1643474</v>
-      </c>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD30" s="28">
+      <c r="V32" s="35">
+        <v>2.9269387E7</v>
+      </c>
+      <c r="W32" s="37"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="44">
+        <v>137.16</v>
+      </c>
+      <c r="Z32" s="44">
+        <v>113.03</v>
+      </c>
+      <c r="AA32" s="37">
+        <v>-0.176</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD32" s="35">
         <v>2.7559335E7</v>
       </c>
-      <c r="AE30" s="28"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="47">
-        <f t="shared" si="2"/>
-        <v>137.1643474</v>
-      </c>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="35"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="28">
-        <v>55069.0</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="J31" s="28"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="39">
-        <v>0.028</v>
-      </c>
-      <c r="N31" s="39"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="45">
-        <v>134.4</v>
-      </c>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="28">
-        <v>4.8688615E7</v>
-      </c>
-      <c r="V31" s="28"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="47">
-        <f t="shared" si="1"/>
-        <v>884.1383537</v>
-      </c>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD31" s="28">
-        <v>1.1502072E7</v>
-      </c>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="35"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="47">
-        <f t="shared" si="2"/>
-        <v>208.8665492</v>
-      </c>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="35"/>
-    </row>
-    <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="28">
-        <v>10200.0</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="28"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="39">
-        <v>0.017</v>
-      </c>
-      <c r="N32" s="39"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="45">
-        <v>113.7</v>
-      </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="28">
-        <v>2627465.0</v>
-      </c>
-      <c r="V32" s="28"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="47">
-        <f t="shared" si="1"/>
-        <v>257.5946078</v>
-      </c>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD32" s="28">
-        <v>2627465.0</v>
-      </c>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="47">
-        <f t="shared" si="2"/>
-        <v>257.5946078</v>
-      </c>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="35"/>
+      <c r="AE32" s="35">
+        <v>2.9269387E7</v>
+      </c>
+      <c r="AF32" s="37">
+        <v>0.062</v>
+      </c>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="44">
+        <v>137.16</v>
+      </c>
+      <c r="AI32" s="44">
+        <v>113.03</v>
+      </c>
+      <c r="AJ32" s="37">
+        <v>-0.176</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="28">
-        <v>12697.0</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" s="28"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="39">
-        <v>0.019</v>
-      </c>
-      <c r="N33" s="39"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="45">
-        <v>116.5</v>
-      </c>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="28">
-        <v>3356167.0</v>
-      </c>
-      <c r="V33" s="28"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="47">
+        <v>89</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="35">
+        <v>55069.0</v>
+      </c>
+      <c r="E33" s="35">
+        <v>67912.0</v>
+      </c>
+      <c r="F33" s="37">
         <f t="shared" si="1"/>
-        <v>264.3275577</v>
-      </c>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD33" s="28">
-        <v>3356167.0</v>
-      </c>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="47">
+        <v>0.2332165102</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="35">
+        <v>6.5441925E7</v>
+      </c>
+      <c r="J33" s="35">
+        <v>7.4801753E7</v>
+      </c>
+      <c r="K33" s="37">
         <f t="shared" si="2"/>
-        <v>264.3275577</v>
-      </c>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="35"/>
+        <v>0.1430249492</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="41">
+        <v>0.028</v>
+      </c>
+      <c r="N33" s="41">
+        <v>0.011</v>
+      </c>
+      <c r="O33" s="37">
+        <v>-0.017</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="42">
+        <v>134.4</v>
+      </c>
+      <c r="R33" s="42">
+        <v>121.0</v>
+      </c>
+      <c r="S33" s="43">
+        <v>-13.4</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="35">
+        <v>4.8688615E7</v>
+      </c>
+      <c r="V33" s="35">
+        <v>6.1839469E7</v>
+      </c>
+      <c r="W33" s="37"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="44">
+        <v>884.14</v>
+      </c>
+      <c r="Z33" s="44">
+        <v>910.58</v>
+      </c>
+      <c r="AA33" s="37">
+        <v>0.03</v>
+      </c>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" s="35">
+        <v>1.1502072E7</v>
+      </c>
+      <c r="AE33" s="35">
+        <v>1.4608795E7</v>
+      </c>
+      <c r="AF33" s="37">
+        <v>0.27</v>
+      </c>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="44">
+        <v>208.87</v>
+      </c>
+      <c r="AI33" s="44">
+        <v>215.11</v>
+      </c>
+      <c r="AJ33" s="37">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="28">
-        <v>653556.0</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="28"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="39">
-        <v>0.01</v>
-      </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="45">
-        <v>112.7</v>
-      </c>
-      <c r="R34" s="45"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="28">
-        <v>8.6617459E7</v>
-      </c>
-      <c r="V34" s="28"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="47">
+        <v>91</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="35">
+        <v>10200.0</v>
+      </c>
+      <c r="E34" s="35">
+        <v>11225.0</v>
+      </c>
+      <c r="F34" s="37">
         <f t="shared" si="1"/>
-        <v>132.5325741</v>
-      </c>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD34" s="28">
-        <v>8.6617459E7</v>
-      </c>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="35"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="47">
+        <v>0.1004901961</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="35">
+        <v>2988005.0</v>
+      </c>
+      <c r="J34" s="35">
+        <v>3287126.0</v>
+      </c>
+      <c r="K34" s="37">
         <f t="shared" si="2"/>
-        <v>132.5325741</v>
-      </c>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="35"/>
+        <v>0.1001072622</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="41">
+        <v>0.017</v>
+      </c>
+      <c r="N34" s="41">
+        <v>0.014</v>
+      </c>
+      <c r="O34" s="37">
+        <v>-0.003</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="42">
+        <v>113.7</v>
+      </c>
+      <c r="R34" s="42">
+        <v>110.9</v>
+      </c>
+      <c r="S34" s="43">
+        <v>-2.8</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="35">
+        <v>2627465.0</v>
+      </c>
+      <c r="V34" s="35">
+        <v>2964624.0</v>
+      </c>
+      <c r="W34" s="37"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="44">
+        <v>257.59</v>
+      </c>
+      <c r="Z34" s="44">
+        <v>264.11</v>
+      </c>
+      <c r="AA34" s="37">
+        <v>0.025</v>
+      </c>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD34" s="35">
+        <v>2627465.0</v>
+      </c>
+      <c r="AE34" s="35">
+        <v>2964624.0</v>
+      </c>
+      <c r="AF34" s="37">
+        <v>0.128</v>
+      </c>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="44">
+        <v>257.59</v>
+      </c>
+      <c r="AI34" s="44">
+        <v>264.11</v>
+      </c>
+      <c r="AJ34" s="37">
+        <v>0.025</v>
+      </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="28">
-        <v>146100.0</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="28"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="39">
-        <v>0.021</v>
-      </c>
-      <c r="N35" s="39"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="45">
-        <v>110.9</v>
-      </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="28">
-        <v>1.55216806E8</v>
-      </c>
-      <c r="V35" s="28"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="47">
+        <v>92</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="35">
+        <v>12697.0</v>
+      </c>
+      <c r="E35" s="35">
+        <v>13058.0</v>
+      </c>
+      <c r="F35" s="37">
         <f t="shared" si="1"/>
-        <v>1062.401136</v>
-      </c>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD35" s="28">
-        <v>1.4629018E7</v>
-      </c>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="35"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="47">
+        <v>0.02843191305</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="35">
+        <v>3909038.0</v>
+      </c>
+      <c r="J35" s="35">
+        <v>4348325.0</v>
+      </c>
+      <c r="K35" s="37">
         <f t="shared" si="2"/>
-        <v>100.1301711</v>
-      </c>
-      <c r="AI35" s="47"/>
-      <c r="AJ35" s="35"/>
+        <v>0.1123772652</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="41">
+        <v>0.019</v>
+      </c>
+      <c r="N35" s="41">
+        <v>0.016</v>
+      </c>
+      <c r="O35" s="37">
+        <v>-0.003</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="42">
+        <v>116.5</v>
+      </c>
+      <c r="R35" s="42">
+        <v>110.0</v>
+      </c>
+      <c r="S35" s="43">
+        <v>-6.5</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="35">
+        <v>3356167.0</v>
+      </c>
+      <c r="V35" s="35">
+        <v>3954682.0</v>
+      </c>
+      <c r="W35" s="37"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="44">
+        <v>264.33</v>
+      </c>
+      <c r="Z35" s="44">
+        <v>302.85</v>
+      </c>
+      <c r="AA35" s="37">
+        <v>0.146</v>
+      </c>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD35" s="35">
+        <v>3356167.0</v>
+      </c>
+      <c r="AE35" s="35">
+        <v>3954682.0</v>
+      </c>
+      <c r="AF35" s="37">
+        <v>0.178</v>
+      </c>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="44">
+        <v>264.33</v>
+      </c>
+      <c r="AI35" s="44">
+        <v>302.85</v>
+      </c>
+      <c r="AJ35" s="37">
+        <v>0.146</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="28">
-        <v>270219.0</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="39">
-        <v>0.005</v>
-      </c>
-      <c r="N36" s="39"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="45">
-        <v>99.6</v>
-      </c>
-      <c r="R36" s="45"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="28">
-        <v>9.3579967E7</v>
-      </c>
-      <c r="V36" s="28"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="47">
+        <v>93</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="35">
+        <v>653556.0</v>
+      </c>
+      <c r="E36" s="35">
+        <v>781477.0</v>
+      </c>
+      <c r="F36" s="37">
         <f t="shared" si="1"/>
-        <v>346.3115732</v>
-      </c>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD36" s="28">
-        <v>6.2015379E7</v>
-      </c>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="35"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="47">
+        <v>0.1957307407</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="35">
+        <v>9.7634776E7</v>
+      </c>
+      <c r="J36" s="35">
+        <v>1.00333656E8</v>
+      </c>
+      <c r="K36" s="37">
         <f t="shared" si="2"/>
-        <v>229.5004385</v>
-      </c>
-      <c r="AI36" s="47"/>
-      <c r="AJ36" s="35"/>
+        <v>0.02764260964</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="41">
+        <v>0.01</v>
+      </c>
+      <c r="N36" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="O36" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="42">
+        <v>112.7</v>
+      </c>
+      <c r="R36" s="42">
+        <v>110.3</v>
+      </c>
+      <c r="S36" s="43">
+        <v>-2.4</v>
+      </c>
+      <c r="T36" s="4"/>
+      <c r="U36" s="35">
+        <v>8.6617459E7</v>
+      </c>
+      <c r="V36" s="35">
+        <v>9.0955285E7</v>
+      </c>
+      <c r="W36" s="37"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="44">
+        <v>132.53</v>
+      </c>
+      <c r="Z36" s="44">
+        <v>116.39</v>
+      </c>
+      <c r="AA36" s="37">
+        <v>-0.122</v>
+      </c>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD36" s="35">
+        <v>8.6617459E7</v>
+      </c>
+      <c r="AE36" s="35">
+        <v>9.0955285E7</v>
+      </c>
+      <c r="AF36" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="44">
+        <v>132.53</v>
+      </c>
+      <c r="AI36" s="44">
+        <v>116.39</v>
+      </c>
+      <c r="AJ36" s="37">
+        <v>-0.122</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="28">
+        <v>94</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="35">
+        <v>146100.0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>154056.0</v>
+      </c>
+      <c r="F37" s="37">
+        <f t="shared" si="1"/>
+        <v>0.05445585216</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="35">
+        <v>1.72098429E8</v>
+      </c>
+      <c r="J37" s="35">
+        <v>2.08932322E8</v>
+      </c>
+      <c r="K37" s="37">
+        <f t="shared" si="2"/>
+        <v>0.2140280607</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="41">
+        <v>0.021</v>
+      </c>
+      <c r="N37" s="41">
+        <v>0.019</v>
+      </c>
+      <c r="O37" s="37">
+        <v>-0.002</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="42">
+        <v>110.9</v>
+      </c>
+      <c r="R37" s="42">
+        <v>108.1</v>
+      </c>
+      <c r="S37" s="43">
+        <v>-2.8</v>
+      </c>
+      <c r="T37" s="4"/>
+      <c r="U37" s="35">
+        <v>1.55216806E8</v>
+      </c>
+      <c r="V37" s="35">
+        <v>1.9334803E8</v>
+      </c>
+      <c r="W37" s="37"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="44">
+        <v>1062.4</v>
+      </c>
+      <c r="Z37" s="44">
+        <v>1255.05</v>
+      </c>
+      <c r="AA37" s="37">
+        <v>0.181</v>
+      </c>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD37" s="35">
+        <v>1.4629018E7</v>
+      </c>
+      <c r="AE37" s="35">
+        <v>1.8222845E7</v>
+      </c>
+      <c r="AF37" s="37">
+        <v>0.246</v>
+      </c>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="44">
+        <v>100.13</v>
+      </c>
+      <c r="AI37" s="44">
+        <v>118.29</v>
+      </c>
+      <c r="AJ37" s="37">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="35">
+        <v>270219.0</v>
+      </c>
+      <c r="E38" s="35">
+        <v>285378.0</v>
+      </c>
+      <c r="F38" s="37">
+        <f t="shared" si="1"/>
+        <v>0.05609894197</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" s="35">
+        <v>9.3196484E7</v>
+      </c>
+      <c r="J38" s="35">
+        <v>1.17353678E8</v>
+      </c>
+      <c r="K38" s="37">
+        <f t="shared" si="2"/>
+        <v>0.2592071392</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="41">
+        <v>0.005</v>
+      </c>
+      <c r="N38" s="41">
+        <v>0.006</v>
+      </c>
+      <c r="O38" s="37">
+        <v>0.001</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="42">
+        <v>99.6</v>
+      </c>
+      <c r="R38" s="42">
+        <v>99.4</v>
+      </c>
+      <c r="S38" s="43">
+        <v>-0.2</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="35">
+        <v>9.3579967E7</v>
+      </c>
+      <c r="V38" s="35">
+        <v>1.18072454E8</v>
+      </c>
+      <c r="W38" s="37"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="44">
+        <v>346.31</v>
+      </c>
+      <c r="Z38" s="44">
+        <v>413.74</v>
+      </c>
+      <c r="AA38" s="37">
+        <v>0.195</v>
+      </c>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD38" s="35">
+        <v>6.2015379E7</v>
+      </c>
+      <c r="AE38" s="35">
+        <v>7.8246533E7</v>
+      </c>
+      <c r="AF38" s="37">
+        <v>0.262</v>
+      </c>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="44">
+        <v>229.5</v>
+      </c>
+      <c r="AI38" s="44">
+        <v>274.19</v>
+      </c>
+      <c r="AJ38" s="37">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="35">
         <v>921933.0</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="J37" s="28"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="39">
+      <c r="E39" s="35">
+        <v>964876.0</v>
+      </c>
+      <c r="F39" s="37">
+        <f t="shared" si="1"/>
+        <v>0.04657930674</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="35">
+        <v>1.274949E7</v>
+      </c>
+      <c r="J39" s="35">
+        <v>1.2634E7</v>
+      </c>
+      <c r="K39" s="37">
+        <f t="shared" si="2"/>
+        <v>-0.009058401552</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="41">
         <v>0.02</v>
       </c>
-      <c r="N37" s="39"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="45">
+      <c r="N39" s="41">
+        <v>0.027</v>
+      </c>
+      <c r="O39" s="37">
+        <v>0.007</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="42">
         <v>122.9</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="28">
+      <c r="R39" s="42">
+        <v>119.6</v>
+      </c>
+      <c r="S39" s="43">
+        <v>-3.3</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="35">
         <v>1.0376195E7</v>
       </c>
-      <c r="V37" s="28"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="47">
-        <f t="shared" si="1"/>
-        <v>11.25482546</v>
-      </c>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD37" s="28">
+      <c r="V39" s="35">
+        <v>1.0567017E7</v>
+      </c>
+      <c r="W39" s="37"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="44">
+        <v>11.25</v>
+      </c>
+      <c r="Z39" s="44">
+        <v>10.95</v>
+      </c>
+      <c r="AA39" s="37">
+        <v>-0.027</v>
+      </c>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD39" s="35">
         <v>1.1650176E7</v>
       </c>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="47">
-        <f t="shared" si="2"/>
-        <v>12.63668401</v>
-      </c>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="35"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="59"/>
-      <c r="AF38" s="59"/>
-      <c r="AG38" s="59"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="59"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="59"/>
-      <c r="Z39" s="59"/>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="59"/>
-      <c r="AC39" s="59"/>
-      <c r="AD39" s="59"/>
-      <c r="AE39" s="59"/>
-      <c r="AF39" s="59"/>
-      <c r="AG39" s="59"/>
-      <c r="AH39" s="59"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
+      <c r="AE39" s="35">
+        <v>1.1864428E7</v>
+      </c>
+      <c r="AF39" s="37">
+        <v>0.018</v>
+      </c>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="44">
+        <v>12.64</v>
+      </c>
+      <c r="AI39" s="44">
+        <v>12.3</v>
+      </c>
+      <c r="AJ39" s="37">
+        <v>-0.027</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -31879,6 +33056,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31892,16 +33072,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
